--- a/Sales Rep Numbers.xlsx
+++ b/Sales Rep Numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbettadapura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069C6D1C-3DA1-436C-A9BD-1545AEBEB721}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79525294-C236-4E03-8BE0-66D980F58FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{55BD64A7-2889-4FFE-B3DA-3403B207941A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55BD64A7-2889-4FFE-B3DA-3403B207941A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -129,9 +129,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +220,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,17 +479,17 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.78515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.2109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,440 +500,440 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28">
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38">
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39">
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40">
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41">
@@ -955,7 +954,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
